--- a/metadata/COVIDVAC/COVIDVAC_COMPLETE_V1_DHIS2.33/reference.xlsx
+++ b/metadata/COVIDVAC/COVIDVAC_COMPLETE_V1_DHIS2.33/reference.xlsx
@@ -440,13 +440,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -470,7 +470,7 @@
         <v>Type</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>COMPLETE</v>
+        <v>AGGREGATE</v>
       </c>
     </row>
     <row r="4">
@@ -478,7 +478,7 @@
         <v>Version</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>V1.2</v>
+        <v>1.2.1</v>
       </c>
     </row>
     <row r="5">
@@ -486,23 +486,31 @@
         <v>DHIS2 version</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>DHIS2.33</v>
+        <v>2.33.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>Created</v>
+        <v>DHIS2 build</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-04-26T16:17</v>
+        <v>58094d2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>Identifier</v>
+        <v>Last updated</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>COVIDVAC_COMPLETE_V1.2_DHIS2.33_2021-04-26T16:17</v>
+        <v>20210915T120252</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <v>COVIDVAC_AGGREGATE_V1.2.1_2.33.9-en</v>
       </c>
     </row>
   </sheetData>
@@ -824,7 +832,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -847,584 +855,474 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Open vial, Other reason</v>
+        <v>Older adult, Male</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-02-24</v>
+        <v>2021-04-26</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>AnEOc7eqTPG</v>
+        <v>bgOEJC1SROA</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Older adult, Male</v>
+        <v>Closed, Contamination</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2021-04-26</v>
+        <v>2020-12-22</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>bgOEJC1SROA</v>
+        <v>BoDI0ni8B3K</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>Closed, Contamination</v>
+        <v>Pfizer/Biontech/Comirnaty</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2020-12-22</v>
+        <v>2021-04-26</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>BoDI0ni8B3K</v>
+        <v>BurSMGyPjBI</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>Pfizer/Biontech/Comirnaty</v>
+        <v>Moderna/mRNA-1273</v>
       </c>
       <c r="B5" s="5" t="str">
         <v>2021-04-26</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>BurSMGyPjBI</v>
+        <v>c5WkU6fYL40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>Moderna/mRNA-1273</v>
+        <v>Adult, Male, Underlying conditions</v>
       </c>
       <c r="B6" s="4" t="str">
         <v>2021-04-26</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>c5WkU6fYL40</v>
+        <v>EEgOAHnVBPh</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>Adult, Male, Underlying conditions</v>
+        <v>Opened, Contamination</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>2021-04-26</v>
+        <v>2020-12-22</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>EEgOAHnVBPh</v>
+        <v>FDzJJUEoO4p</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>Closed vial, Color change (VVM)</v>
+        <v>Adult, Female</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>2021-02-24</v>
+        <v>2021-04-26</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>EWaVKxhCw7E</v>
+        <v>G5DTdXwMaia</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>Opened, Contamination</v>
+        <v>Adult, Female, No underlying conditions</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>2020-12-22</v>
+        <v>2021-04-26</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>FDzJJUEoO4p</v>
+        <v>gSBt0sW2xt7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>Adult, Female</v>
+        <v>Older adult, Male, Underlying conditions</v>
       </c>
       <c r="B10" s="4" t="str">
         <v>2021-04-26</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>G5DTdXwMaia</v>
+        <v>h36QRTxHjMG</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>Adult, Female, No underlying conditions</v>
+        <v>AstraZeneca/AZ-SKBio</v>
       </c>
       <c r="B11" s="5" t="str">
         <v>2021-04-26</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>gSBt0sW2xt7</v>
+        <v>H4eiCaIeZQR</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>Older adult, Male, Underlying conditions</v>
+        <v>Vaccine3</v>
       </c>
       <c r="B12" s="4" t="str">
         <v>2021-04-26</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>h36QRTxHjMG</v>
+        <v>HDF0FxE00WL</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>AstraZeneca/AZ-SKBio</v>
+        <v>Opened, Other reason</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>2021-04-26</v>
+        <v>2020-12-22</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>H4eiCaIeZQR</v>
+        <v>hdq20lFpfII</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>Vaccine3</v>
+        <v>Adult, Male, No underlying conditions</v>
       </c>
       <c r="B14" s="4" t="str">
         <v>2021-04-26</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>HDF0FxE00WL</v>
+        <v>Hgeo6ZzEURv</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>Opened, Other reason</v>
+        <v>default</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>2020-12-22</v>
+        <v>2021-02-24</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>hdq20lFpfII</v>
+        <v>HllvX50cXC0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>Adult, Male, No underlying conditions</v>
+        <v>Opened, Color change</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>2021-04-26</v>
+        <v>2020-12-22</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>Hgeo6ZzEURv</v>
+        <v>ikD0qzTRApO</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>default</v>
+        <v>Johnson&amp;Johnson</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>2021-02-24</v>
+        <v>2021-04-26</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>HllvX50cXC0</v>
+        <v>j07LjUKqjh8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>Open vial, Color change (VVM)</v>
+        <v>Opened, Exposure</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>2021-02-24</v>
+        <v>2020-12-22</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>iemSXBenfIl</v>
+        <v>ki1cZuU1Mor</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>Opened, Color change</v>
+        <v>Older adult, Male, No underlying conditions</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>2020-12-22</v>
+        <v>2021-04-26</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>ikD0qzTRApO</v>
+        <v>lbHoYiePn1V</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>Johnson&amp;Johnson</v>
+        <v>Older adult, Female</v>
       </c>
       <c r="B20" s="4" t="str">
         <v>2021-04-26</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>j07LjUKqjh8</v>
+        <v>Lwb0yEbt4s6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>Open vial, Contamination</v>
+        <v>Pfizer/Biontech/Comirnaty</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>2021-02-24</v>
+        <v>2021-04-26</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>k3G5n6cjo1H</v>
+        <v>mpsnjgUuZA2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>Opened, Exposure</v>
+        <v>Johnson&amp;Johnson</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>2020-12-22</v>
+        <v>2021-04-26</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>ki1cZuU1Mor</v>
+        <v>mtgzsnM64tO</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>Older adult, Male, No underlying conditions</v>
+        <v>Serious AEFI</v>
       </c>
       <c r="B23" s="5" t="str">
         <v>2021-04-26</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>lbHoYiePn1V</v>
+        <v>NyheW1iMbZ0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>Older adult, Female</v>
+        <v>Closed, Expiry</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>2021-04-26</v>
+        <v>2020-12-22</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>Lwb0yEbt4s6</v>
+        <v>O5Uj1OF9N9P</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>Closed vial, Partial use</v>
+        <v>AstraZeneca/AZD12222</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>2021-02-24</v>
+        <v>2021-04-26</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>MkryG3woLLJ</v>
+        <v>p2wp5tC4iHi</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>Pfizer/Biontech/Comirnaty</v>
+        <v>Gamaleya/Sputnik V</v>
       </c>
       <c r="B26" s="4" t="str">
         <v>2021-04-26</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>mpsnjgUuZA2</v>
+        <v>paz8xJKpXiP</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>Johnson&amp;Johnson</v>
+        <v>Opened, Expiry</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>2021-04-26</v>
+        <v>2020-12-22</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>mtgzsnM64tO</v>
+        <v>pX5weIuii9R</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>Serious AEFI</v>
+        <v>AstraZeneca/AZ-SKBio</v>
       </c>
       <c r="B28" s="4" t="str">
         <v>2021-04-26</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>NyheW1iMbZ0</v>
+        <v>Qa79VToX5lp</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>Closed, Expiry</v>
+        <v>AstraZeneca/AZD12222</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>2020-12-22</v>
+        <v>2021-04-26</v>
       </c>
       <c r="C29" s="5" t="str">
-        <v>O5Uj1OF9N9P</v>
+        <v>qxVEl8UH95p</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>AstraZeneca/AZD12222</v>
+        <v>Moderna/mRNA-1273</v>
       </c>
       <c r="B30" s="4" t="str">
         <v>2021-04-26</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>p2wp5tC4iHi</v>
+        <v>RBH7QWeF38A</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>Gamaleya/Sputnik V</v>
+        <v>Sinopharm/Coronavac</v>
       </c>
       <c r="B31" s="5" t="str">
         <v>2021-04-26</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v>paz8xJKpXiP</v>
+        <v>SHIcKoXyVDr</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>Opened, Expiry</v>
+        <v>Older adult, Female, Underlying conditions</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>2020-12-22</v>
+        <v>2021-04-26</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>pX5weIuii9R</v>
+        <v>srFeKDklL1g</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>AstraZeneca/AZ-SKBio</v>
+        <v>Opened, Partial use</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>2021-04-26</v>
+        <v>2020-12-22</v>
       </c>
       <c r="C33" s="5" t="str">
-        <v>Qa79VToX5lp</v>
+        <v>Sv9bGipeuZU</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>Closed vial, Contamination</v>
+        <v>Adult, Female, Underlying conditions</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>2021-02-24</v>
+        <v>2021-04-26</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v>QVo1zpPICJN</v>
+        <v>Sw0WwH8AM10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>AstraZeneca/AZD12222</v>
+        <v>Gamaleya/Sputnik V</v>
       </c>
       <c r="B35" s="5" t="str">
         <v>2021-04-26</v>
       </c>
       <c r="C35" s="5" t="str">
-        <v>qxVEl8UH95p</v>
+        <v>TfnuN2akYGd</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>Moderna/mRNA-1273</v>
+        <v>Closed, Partial use</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>2021-04-26</v>
+        <v>2020-12-22</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v>RBH7QWeF38A</v>
+        <v>TuW4TAQPDcC</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>Open vial, Partial use</v>
+        <v>Non-Serious AEFI</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>2021-02-24</v>
+        <v>2021-04-26</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>RPzlBMTlOxz</v>
+        <v>uTh4A0HfrcV</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>Sinopharm/Coronavac</v>
+        <v>Older adult, Female, No underlying conditions</v>
       </c>
       <c r="B38" s="4" t="str">
         <v>2021-04-26</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v>SHIcKoXyVDr</v>
+        <v>UycnQgi3zDk</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>Older adult, Female, Underlying conditions</v>
+        <v>Closed, Color change</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>2021-04-26</v>
+        <v>2020-12-22</v>
       </c>
       <c r="C39" s="5" t="str">
-        <v>srFeKDklL1g</v>
+        <v>VG40LqWAG4i</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>Opened, Partial use</v>
+        <v>Closed, Other reason</v>
       </c>
       <c r="B40" s="4" t="str">
         <v>2020-12-22</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>Sv9bGipeuZU</v>
+        <v>vjcCyKm2JGD</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>Adult, Female, Underlying conditions</v>
+        <v>Adult, Male</v>
       </c>
       <c r="B41" s="5" t="str">
         <v>2021-04-26</v>
       </c>
       <c r="C41" s="5" t="str">
-        <v>Sw0WwH8AM10</v>
+        <v>VLskkRRCPef</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>Gamaleya/Sputnik V</v>
+        <v>Sinopharm/Coronavac</v>
       </c>
       <c r="B42" s="4" t="str">
         <v>2021-04-26</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>TfnuN2akYGd</v>
+        <v>wikEP5C2Df2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>Closed, Partial use</v>
+        <v>Vaccine2</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>2020-12-22</v>
+        <v>2021-04-26</v>
       </c>
       <c r="C43" s="5" t="str">
-        <v>TuW4TAQPDcC</v>
+        <v>xIT1MPM7xSq</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>Non-Serious AEFI</v>
+        <v>Closed, Exposure</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>2021-04-26</v>
+        <v>2020-12-22</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>uTh4A0HfrcV</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="5" t="str">
-        <v>Closed vial, Other reason</v>
-      </c>
-      <c r="B45" s="5" t="str">
-        <v>2021-02-24</v>
-      </c>
-      <c r="C45" s="5" t="str">
-        <v>utXnwFzJgiA</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="4" t="str">
-        <v>Older adult, Female, No underlying conditions</v>
-      </c>
-      <c r="B46" s="4" t="str">
-        <v>2021-04-26</v>
-      </c>
-      <c r="C46" s="4" t="str">
-        <v>UycnQgi3zDk</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="5" t="str">
-        <v>Closed, Color change</v>
-      </c>
-      <c r="B47" s="5" t="str">
-        <v>2020-12-22</v>
-      </c>
-      <c r="C47" s="5" t="str">
-        <v>VG40LqWAG4i</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="4" t="str">
-        <v>Closed, Other reason</v>
-      </c>
-      <c r="B48" s="4" t="str">
-        <v>2020-12-22</v>
-      </c>
-      <c r="C48" s="4" t="str">
-        <v>vjcCyKm2JGD</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="5" t="str">
-        <v>Adult, Male</v>
-      </c>
-      <c r="B49" s="5" t="str">
-        <v>2021-04-26</v>
-      </c>
-      <c r="C49" s="5" t="str">
-        <v>VLskkRRCPef</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="4" t="str">
-        <v>Sinopharm/Coronavac</v>
-      </c>
-      <c r="B50" s="4" t="str">
-        <v>2021-04-26</v>
-      </c>
-      <c r="C50" s="4" t="str">
-        <v>wikEP5C2Df2</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="5" t="str">
-        <v>Closed vial, Expiry</v>
-      </c>
-      <c r="B51" s="5" t="str">
-        <v>2021-02-24</v>
-      </c>
-      <c r="C51" s="5" t="str">
-        <v>x0WvdmAkQqF</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="4" t="str">
-        <v>Open vial, Expiry</v>
-      </c>
-      <c r="B52" s="4" t="str">
-        <v>2021-02-24</v>
-      </c>
-      <c r="C52" s="4" t="str">
-        <v>x1IX3hw1Xwl</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="5" t="str">
-        <v>Vaccine2</v>
-      </c>
-      <c r="B53" s="5" t="str">
-        <v>2021-04-26</v>
-      </c>
-      <c r="C53" s="5" t="str">
-        <v>xIT1MPM7xSq</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="4" t="str">
-        <v>Closed, Exposure</v>
-      </c>
-      <c r="B54" s="4" t="str">
-        <v>2020-12-22</v>
-      </c>
-      <c r="C54" s="4" t="str">
         <v>YPZIuJSQGjz</v>
       </c>
     </row>
@@ -2786,7 +2684,7 @@
         <v>Yes</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>2021-04-26</v>
+        <v>2021-06-17</v>
       </c>
       <c r="E2" s="4" t="str">
         <v>AyprDvhGpNr</v>
@@ -2820,7 +2718,7 @@
         <v>Yes</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>2021-04-26</v>
+        <v>2021-04-28</v>
       </c>
       <c r="E4" s="4" t="str">
         <v>ZIajFXSOwEz</v>
@@ -3416,10 +3314,10 @@
         <v>1</v>
       </c>
       <c r="H18" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I18" s="4" t="str">
-        <v>2021-04-26</v>
+        <v>2021-04-29</v>
       </c>
       <c r="J18" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -4027,7 +3925,7 @@
         <v>Percentage</v>
       </c>
       <c r="I37" s="5" t="str">
-        <v>2021-04-26</v>
+        <v>2021-04-29</v>
       </c>
       <c r="J37" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5307,7 +5205,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I77" s="5" t="str">
-        <v>2021-04-26</v>
+        <v>2021-04-29</v>
       </c>
       <c r="J77" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -5531,7 +5429,7 @@
         <v>Percentage</v>
       </c>
       <c r="I84" s="4" t="str">
-        <v>2021-04-26</v>
+        <v>2021-04-29</v>
       </c>
       <c r="J84" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -6523,7 +6421,7 @@
         <v>Percentage</v>
       </c>
       <c r="I115" s="5" t="str">
-        <v>2021-04-26</v>
+        <v>2021-04-29</v>
       </c>
       <c r="J115" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -7195,7 +7093,7 @@
         <v>Percentage</v>
       </c>
       <c r="I136" s="4" t="str">
-        <v>2021-04-26</v>
+        <v>2021-04-29</v>
       </c>
       <c r="J136" s="4" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8763,7 +8661,7 @@
         <v>Percentage</v>
       </c>
       <c r="I185" s="5" t="str">
-        <v>2021-04-26</v>
+        <v>2021-04-29</v>
       </c>
       <c r="J185" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -8891,7 +8789,7 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I189" s="5" t="str">
-        <v>2021-04-26</v>
+        <v>2021-04-29</v>
       </c>
       <c r="J189" s="5" t="str">
         <v>TIIiQ09g7Bl</v>
@@ -11736,12 +11634,12 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
@@ -11759,23 +11657,34 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>COVAC admin</v>
+        <v>COVAC data capture</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2021-04-26</v>
+        <v>2021-09-15</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>e2QMDWpq88P</v>
+        <v>AxmuDEHQApq</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
+        <v>COVAC admin</v>
+      </c>
+      <c r="B3" s="5" t="str">
+        <v>2021-04-26</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <v>e2QMDWpq88P</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="str">
         <v>COVAC access</v>
       </c>
-      <c r="B3" s="5" t="str">
-        <v>2021-04-26</v>
-      </c>
-      <c r="C3" s="5" t="str">
+      <c r="B4" s="4" t="str">
+        <v>2021-04-26</v>
+      </c>
+      <c r="C4" s="4" t="str">
         <v>OeiDCnG3Pv2</v>
       </c>
     </row>
@@ -11823,7 +11732,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -12080,7 +11989,7 @@
         <v>Total target populations</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>2021-04-26</v>
+        <v>2021-04-28</v>
       </c>
       <c r="D18" s="4" t="str">
         <v>MalimoojioF</v>
@@ -12094,24 +12003,10 @@
         <v>Disaggregated target populations</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>2021-04-26</v>
+        <v>2021-04-28</v>
       </c>
       <c r="D19" s="5" t="str">
         <v>I6FIWinQaAe</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="str">
-        <v>COVIDVAC - Population (Yearly)</v>
-      </c>
-      <c r="B20" s="4" t="str">
-        <v>People with underlying conditions</v>
-      </c>
-      <c r="C20" s="4" t="str">
-        <v>2021-04-26</v>
-      </c>
-      <c r="D20" s="4" t="str">
-        <v>rfCZkGgNApv</v>
       </c>
     </row>
   </sheetData>
@@ -13324,7 +13219,7 @@
     </row>
     <row r="71">
       <c r="A71" s="5" t="str">
-        <v>People with underlying conditions</v>
+        <v>Disaggregated target populations</v>
       </c>
       <c r="B71" s="5" t="str">
         <v>Total population</v>
@@ -13341,7 +13236,7 @@
     </row>
     <row r="72">
       <c r="A72" s="4" t="str">
-        <v>People with underlying conditions</v>
+        <v>Disaggregated target populations</v>
       </c>
       <c r="B72" s="4" t="str">
         <v>Total target populations</v>
@@ -13358,7 +13253,7 @@
     </row>
     <row r="73">
       <c r="A73" s="5" t="str">
-        <v>People with underlying conditions</v>
+        <v>Disaggregated target populations</v>
       </c>
       <c r="B73" s="5" t="str">
         <v>Total target populations</v>
@@ -13375,7 +13270,7 @@
     </row>
     <row r="74">
       <c r="A74" s="4" t="str">
-        <v>People with underlying conditions</v>
+        <v>Disaggregated target populations</v>
       </c>
       <c r="B74" s="4" t="str">
         <v>Total target populations</v>
@@ -13384,32 +13279,32 @@
         <v>MalimoojioF</v>
       </c>
       <c r="D74" s="4" t="str">
-        <v>COVIDVAC - Total Other population</v>
+        <v>COVIDVAC - Total people with at least one underlying condition</v>
       </c>
       <c r="E74" s="4" t="str">
-        <v>emyAeGuGp8H</v>
+        <v>mmcdLpzPJ8C</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="5" t="str">
-        <v>People with underlying conditions</v>
+        <v>Disaggregated target populations</v>
       </c>
       <c r="B75" s="5" t="str">
-        <v>Disaggregated target populations</v>
+        <v>Total target populations</v>
       </c>
       <c r="C75" s="5" t="str">
-        <v>I6FIWinQaAe</v>
+        <v>MalimoojioF</v>
       </c>
       <c r="D75" s="5" t="str">
-        <v>COVIDVAC - Target frontline healthcare workers</v>
+        <v>COVIDVAC - Total Other population</v>
       </c>
       <c r="E75" s="5" t="str">
-        <v>zsbo4sda5sT</v>
+        <v>emyAeGuGp8H</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="4" t="str">
-        <v>People with underlying conditions</v>
+        <v>Disaggregated target populations</v>
       </c>
       <c r="B76" s="4" t="str">
         <v>Disaggregated target populations</v>
@@ -13418,15 +13313,15 @@
         <v>I6FIWinQaAe</v>
       </c>
       <c r="D76" s="4" t="str">
-        <v>COVIDVAC - Target essential workers</v>
+        <v>COVIDVAC - Target frontline healthcare workers</v>
       </c>
       <c r="E76" s="4" t="str">
-        <v>yBXYpUZwZS6</v>
+        <v>zsbo4sda5sT</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="5" t="str">
-        <v>People with underlying conditions</v>
+        <v>Disaggregated target populations</v>
       </c>
       <c r="B77" s="5" t="str">
         <v>Disaggregated target populations</v>
@@ -13435,44 +13330,44 @@
         <v>I6FIWinQaAe</v>
       </c>
       <c r="D77" s="5" t="str">
-        <v>COVIDVAC - Target other population</v>
+        <v>COVIDVAC - Target essential workers</v>
       </c>
       <c r="E77" s="5" t="str">
-        <v>arGTttrrqxE</v>
+        <v>yBXYpUZwZS6</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="4" t="str">
-        <v>People with underlying conditions</v>
+        <v>Disaggregated target populations</v>
       </c>
       <c r="B78" s="4" t="str">
-        <v>People with underlying conditions</v>
+        <v>Disaggregated target populations</v>
       </c>
       <c r="C78" s="4" t="str">
-        <v>rfCZkGgNApv</v>
+        <v>I6FIWinQaAe</v>
       </c>
       <c r="D78" s="4" t="str">
-        <v>COVIDVAC - Total people with at least one underlying condition</v>
+        <v>COVIDVAC - Target people with at least one underlying condition</v>
       </c>
       <c r="E78" s="4" t="str">
-        <v>mmcdLpzPJ8C</v>
+        <v>YtJqjif8Gne</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="5" t="str">
-        <v>People with underlying conditions</v>
+        <v>Disaggregated target populations</v>
       </c>
       <c r="B79" s="5" t="str">
-        <v>People with underlying conditions</v>
+        <v>Disaggregated target populations</v>
       </c>
       <c r="C79" s="5" t="str">
-        <v>rfCZkGgNApv</v>
+        <v>I6FIWinQaAe</v>
       </c>
       <c r="D79" s="5" t="str">
-        <v>COVIDVAC - Target people with at least one underlying condition</v>
+        <v>COVIDVAC - Target other population</v>
       </c>
       <c r="E79" s="5" t="str">
-        <v>YtJqjif8Gne</v>
+        <v>arGTttrrqxE</v>
       </c>
     </row>
   </sheetData>
@@ -16309,7 +16204,7 @@
         <v>default</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2021-04-26</v>
+        <v>2021-09-15</v>
       </c>
       <c r="C6" s="4" t="str">
         <v>GLevLNI9wkl</v>
